--- a/01_Classification/03_Output/IBM_Attrition_MLM_Evaluation_Clf.xlsx
+++ b/01_Classification/03_Output/IBM_Attrition_MLM_Evaluation_Clf.xlsx
@@ -474,34 +474,34 @@
         <v>0.75</v>
       </c>
       <c r="C2">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="D2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H2">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="I2">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="J2">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="K2">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="L2">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -509,37 +509,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C3">
         <v>0.78</v>
       </c>
       <c r="D3">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="I3">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="J3">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="K3">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
       <c r="L3">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -547,7 +547,7 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="C4">
         <v>0.7</v>
@@ -556,10 +556,10 @@
         <v>164</v>
       </c>
       <c r="E4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>69</v>
@@ -574,10 +574,10 @@
         <v>0.8</v>
       </c>
       <c r="K4">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="L4">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -585,34 +585,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="D5">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="E5">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="H5">
+        <v>0.89</v>
+      </c>
+      <c r="I5">
+        <v>0.93</v>
+      </c>
+      <c r="J5">
         <v>0.91</v>
       </c>
-      <c r="I5">
-        <v>0.76</v>
-      </c>
-      <c r="J5">
-        <v>0.83</v>
-      </c>
       <c r="K5">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
       <c r="L5">
         <v>0.6899999999999999</v>
@@ -623,37 +623,37 @@
         <v>16</v>
       </c>
       <c r="B6">
+        <v>0.97</v>
+      </c>
+      <c r="C6">
+        <v>0.76</v>
+      </c>
+      <c r="D6">
+        <v>233</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>47</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.83</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>0.66</v>
-      </c>
-      <c r="D6">
-        <v>203</v>
-      </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>31</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>0.87</v>
-      </c>
-      <c r="I6">
-        <v>0.87</v>
-      </c>
       <c r="J6">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="K6">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
